--- a/data/long_bre/P24_2-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_2-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>125,24%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>50,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-10,19%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>66,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 16,28</t>
+          <t>-4,16; 15,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 6,91</t>
+          <t>-10,73; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,58</t>
+          <t>1,35; 15,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,58; 328,48</t>
+          <t>-7,55; 9,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 76,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 150,52</t>
+          <t>-26,21; 217,08</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-60,6; 115,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 163,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-42,97; 118,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,46</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,89%</t>
+          <t>-8,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,51%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-9,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 2,99</t>
+          <t>-19,25; 8,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 14,56</t>
+          <t>-16,69; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -0,53</t>
+          <t>-20,82; -2,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 3,59</t>
+          <t>-20,66; 5,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 25,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -0,84</t>
+          <t>-24,26; 12,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,11; 14,65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; -2,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-25,31; 8,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 9,7</t>
+          <t>-10,02; 10,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 13,77</t>
+          <t>-5,02; 15,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 8,71</t>
+          <t>-4,53; 9,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 118,38</t>
+          <t>-3,84; 16,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 134,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 79,34</t>
+          <t>-51,34; 106,86</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 129,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-25,22; 83,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 215,29</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 4,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 35,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 24,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 28,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-22,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-13,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,58</t>
+          <t>-11,68; 2,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 11,7</t>
+          <t>-10,68; 4,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 4,77</t>
+          <t>-5,31; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 8,51</t>
+          <t>-5,4; 5,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 20,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 7,9</t>
+          <t>-55,77; 23,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-44,53; 32,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; 35,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,91; 50,46</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-4,6%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 7,46</t>
+          <t>-9,78; 10,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 3,45</t>
+          <t>-4,88; 12,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,17</t>
+          <t>-9,39; 3,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 52,87</t>
+          <t>-14,28; 3,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 19,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 52,14</t>
+          <t>-13,68; 18,05</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 22,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 6,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; 5,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-5,54%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>36,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,46</t>
+          <t>-6,93; 10,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 4,86</t>
+          <t>-10,0; 5,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,77</t>
+          <t>-2,92; 7,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 126,56</t>
+          <t>-3,13; 13,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 35,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 44,21</t>
+          <t>-29,1; 90,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-35,28; 30,84</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 54,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 95,72</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -0,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 1,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>47,75%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>39,0%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 9,75</t>
+          <t>-1,98; 11,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 11,68</t>
+          <t>-6,36; 6,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 8,38</t>
+          <t>-3,74; 8,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 64,62</t>
+          <t>-0,59; 12,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 75,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 69,01</t>
+          <t>-14,29; 179,6</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-31,51; 51,32</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 45,13</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 104,5</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>-14,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,75%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,08%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-16,83%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,48</t>
+          <t>-19,03; 0,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 2,13</t>
+          <t>-13,76; 3,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,79</t>
+          <t>-12,61; 0,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 68,4</t>
+          <t>-19,35; -2,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 16,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 34,91</t>
+          <t>-25,38; 0,16</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 6,33</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-18,3; 0,73</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-28,1; -3,73</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -0,67</t>
+          <t>-3,33; 13,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 5,68</t>
+          <t>-2,37; 12,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -0,55</t>
+          <t>-2,05; 8,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -0,98</t>
+          <t>-3,07; 12,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 9,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -0,89</t>
+          <t>-14,06; 82,45</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 75,92</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 71,03</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; 77,55</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 41,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 31,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 45,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-5,69</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>56,92%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-26,85%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 9,75</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-18,07; 3,72</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 133,3</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-63,02; 25,09</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-3,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 5,87</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 18,17</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 8,6</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 32,98</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-16,02%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-10,5; 2,96</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 9,34</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-46,03; 22,53</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-41,75; 95,78</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>23,94%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-13,04%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,78</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 1,83</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 5,94</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 6,27</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 55,96</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-33,84; 12,74</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 36,13</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 51,14</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-5,44</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 0,72</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 5,77</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; -0,62</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; -2,55</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-11,71; 1,04</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; 9,84</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; -0,96</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-20,26; -3,97</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 4,92</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 5,92</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 5,99</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 10,46</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-17,4; 31,61</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 33,49</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 41,52</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 69,0</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_2-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_2-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
